--- a/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/sri_lanka/sri_lanka_insurance_prop_cas.xlsx
@@ -591,40 +591,40 @@
         </is>
       </c>
       <c r="G2">
-        <v>0.1426829268292683</v>
+        <v>0.15625</v>
       </c>
       <c r="H2">
-        <v>0.1426829268292683</v>
+        <v>0.15625</v>
       </c>
       <c r="I2">
-        <v>0.1564024390243902</v>
+        <v>0.2449404761904762</v>
       </c>
       <c r="J2">
-        <v>0.1179772716633116</v>
+        <v>0.1794226555652936</v>
       </c>
       <c r="K2">
-        <v>3.93</v>
+        <v>5.97</v>
       </c>
       <c r="L2">
-        <v>0.1198170731707317</v>
+        <v>0.1776785714285714</v>
       </c>
       <c r="M2">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>0.05062761506276151</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="O2">
-        <v>0.3078880407124682</v>
+        <v>0.3350083752093803</v>
       </c>
       <c r="P2">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>0.05062761506276151</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="R2">
-        <v>0.3078880407124682</v>
+        <v>0.3350083752093803</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -633,67 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.735</v>
+        <v>0.554</v>
       </c>
       <c r="V2">
-        <v>0.03075313807531381</v>
+        <v>0.01828382838283828</v>
       </c>
       <c r="W2">
-        <v>0.2101604278074866</v>
+        <v>0.312565445026178</v>
       </c>
       <c r="X2">
-        <v>0.07395310180410043</v>
+        <v>0.08860093357074675</v>
       </c>
       <c r="Y2">
-        <v>0.1362073260033862</v>
+        <v>0.2239645114554313</v>
       </c>
       <c r="Z2">
-        <v>1.766194604490873</v>
+        <v>1.748815905897049</v>
       </c>
       <c r="AA2">
-        <v>0.2083708206642949</v>
+        <v>0.3137771939308731</v>
       </c>
       <c r="AB2">
-        <v>0.07349172342584015</v>
+        <v>0.08819342929913308</v>
       </c>
       <c r="AC2">
-        <v>0.1348790972384548</v>
+        <v>0.22558376463174</v>
       </c>
       <c r="AD2">
-        <v>0.848</v>
+        <v>0.463</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.848</v>
+        <v>0.463</v>
       </c>
       <c r="AG2">
-        <v>0.113</v>
+        <v>-0.09100000000000003</v>
       </c>
       <c r="AH2">
-        <v>0.03426539518344917</v>
+        <v>0.01505054773591652</v>
       </c>
       <c r="AI2">
-        <v>0.04251052737116503</v>
+        <v>0.01924115862527532</v>
       </c>
       <c r="AJ2">
-        <v>0.004705784366801316</v>
+        <v>-0.003012347313714457</v>
       </c>
       <c r="AK2">
-        <v>0.005881434445427575</v>
+        <v>-0.003870857969288358</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="AN2">
-        <v>0.1544626593806921</v>
+        <v>0.05518474374255065</v>
+      </c>
+      <c r="AO2">
+        <v>74.14414414414415</v>
       </c>
       <c r="AP2">
-        <v>0.02058287795992714</v>
+        <v>-0.01084624553039333</v>
+      </c>
+      <c r="AQ2">
+        <v>74.14414414414415</v>
       </c>
     </row>
     <row r="3">
@@ -713,40 +719,40 @@
         </is>
       </c>
       <c r="G3">
-        <v>0.1426829268292683</v>
+        <v>0.15625</v>
       </c>
       <c r="H3">
-        <v>0.1426829268292683</v>
+        <v>0.15625</v>
       </c>
       <c r="I3">
-        <v>0.1564024390243902</v>
+        <v>0.2449404761904762</v>
       </c>
       <c r="J3">
-        <v>0.1179772716633116</v>
+        <v>0.1794226555652936</v>
       </c>
       <c r="K3">
-        <v>3.93</v>
+        <v>5.97</v>
       </c>
       <c r="L3">
-        <v>0.1198170731707317</v>
+        <v>0.1776785714285714</v>
       </c>
       <c r="M3">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>0.05062761506276151</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="O3">
-        <v>0.3078880407124682</v>
+        <v>0.3350083752093803</v>
       </c>
       <c r="P3">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>0.05062761506276151</v>
+        <v>0.066006600660066</v>
       </c>
       <c r="R3">
-        <v>0.3078880407124682</v>
+        <v>0.3350083752093803</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -755,67 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.735</v>
+        <v>0.554</v>
       </c>
       <c r="V3">
-        <v>0.03075313807531381</v>
+        <v>0.01828382838283828</v>
       </c>
       <c r="W3">
-        <v>0.2101604278074866</v>
+        <v>0.312565445026178</v>
       </c>
       <c r="X3">
-        <v>0.07395310180410043</v>
+        <v>0.08860093357074675</v>
       </c>
       <c r="Y3">
-        <v>0.1362073260033862</v>
+        <v>0.2239645114554313</v>
       </c>
       <c r="Z3">
-        <v>1.766194604490873</v>
+        <v>1.748815905897049</v>
       </c>
       <c r="AA3">
-        <v>0.2083708206642949</v>
+        <v>0.3137771939308731</v>
       </c>
       <c r="AB3">
-        <v>0.07349172342584015</v>
+        <v>0.08819342929913308</v>
       </c>
       <c r="AC3">
-        <v>0.1348790972384548</v>
+        <v>0.22558376463174</v>
       </c>
       <c r="AD3">
-        <v>0.848</v>
+        <v>0.463</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.848</v>
+        <v>0.463</v>
       </c>
       <c r="AG3">
-        <v>0.113</v>
+        <v>-0.09100000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.03426539518344917</v>
+        <v>0.01505054773591652</v>
       </c>
       <c r="AI3">
-        <v>0.04251052737116503</v>
+        <v>0.01924115862527532</v>
       </c>
       <c r="AJ3">
-        <v>0.004705784366801316</v>
+        <v>-0.003012347313714457</v>
       </c>
       <c r="AK3">
-        <v>0.005881434445427575</v>
+        <v>-0.003870857969288358</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="AN3">
-        <v>0.1544626593806921</v>
+        <v>0.05518474374255065</v>
+      </c>
+      <c r="AO3">
+        <v>74.14414414414415</v>
       </c>
       <c r="AP3">
-        <v>0.02058287795992714</v>
+        <v>-0.01084624553039333</v>
+      </c>
+      <c r="AQ3">
+        <v>74.14414414414415</v>
       </c>
     </row>
   </sheetData>
